--- a/mahjong/application/src/test/resources/testdata/dbdata_all.xlsx
+++ b/mahjong/application/src/test/resources/testdata/dbdata_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="8210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="8210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="game" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>is_east</t>
   </si>
   <si>
-    <t>nickename</t>
-  </si>
-  <si>
     <t>room_id</t>
   </si>
   <si>
@@ -125,6 +122,10 @@
   </si>
   <si>
     <t>player4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nickname</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,13 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -519,16 +520,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -643,16 +644,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -666,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -689,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -712,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -734,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -745,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -768,22 +769,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -791,22 +792,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -814,22 +815,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -837,22 +838,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -873,10 +874,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -896,25 +897,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/mahjong/application/src/test/resources/testdata/dbdata_all.xlsx
+++ b/mahjong/application/src/test/resources/testdata/dbdata_all.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>game_id</t>
   </si>
@@ -126,6 +126,26 @@
   </si>
   <si>
     <t>nickname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login004</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -733,132 +753,148 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
